--- a/artfynd/A 6501-2020.xlsx
+++ b/artfynd/A 6501-2020.xlsx
@@ -3795,7 +3795,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111277424</v>
+        <v>111277538</v>
       </c>
       <c r="B29" t="n">
         <v>89686</v>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569750.3053765292</v>
+        <v>569784.6764437903</v>
       </c>
       <c r="R29" t="n">
-        <v>6992912.817455334</v>
+        <v>6992856.400962653</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111277392</v>
+        <v>111279094</v>
       </c>
       <c r="B30" t="n">
-        <v>89845</v>
+        <v>89416</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3920,25 +3920,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>569750.3053765292</v>
+        <v>569279.6199819668</v>
       </c>
       <c r="R30" t="n">
-        <v>6992912.817455334</v>
+        <v>6992811.114809629</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4134,10 +4134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111279409</v>
+        <v>111277392</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4150,21 +4150,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>569443.239979364</v>
+        <v>569750.3053765292</v>
       </c>
       <c r="R32" t="n">
-        <v>6992913.042043422</v>
+        <v>6992912.817455334</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4247,10 +4247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111278217</v>
+        <v>111278872</v>
       </c>
       <c r="B33" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4263,35 +4263,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Singsån, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>569671.7019483433</v>
+        <v>569296.7869269754</v>
       </c>
       <c r="R33" t="n">
-        <v>6993040.858867787</v>
+        <v>6992794.243538878</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111277950</v>
+        <v>111278217</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4372,39 +4372,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Singsån, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>569874.8142812594</v>
+        <v>569671.7019483433</v>
       </c>
       <c r="R34" t="n">
-        <v>6993100.559414167</v>
+        <v>6993040.858867787</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111277552</v>
+        <v>111277448</v>
       </c>
       <c r="B35" t="n">
         <v>89686</v>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>569770.841244747</v>
+        <v>569750.3053765292</v>
       </c>
       <c r="R35" t="n">
-        <v>6992866.083226931</v>
+        <v>6992912.817455334</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111279094</v>
+        <v>111279409</v>
       </c>
       <c r="B36" t="n">
-        <v>89416</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4598,25 +4598,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1205</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>569279.6199819668</v>
+        <v>569443.239979364</v>
       </c>
       <c r="R36" t="n">
-        <v>6992811.114809629</v>
+        <v>6992913.042043422</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4699,10 +4699,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111278872</v>
+        <v>111278492</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4715,21 +4715,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569296.7869269754</v>
+        <v>569641.4769454591</v>
       </c>
       <c r="R37" t="n">
-        <v>6992794.243538878</v>
+        <v>6992967.635971196</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111277633</v>
+        <v>111277903</v>
       </c>
       <c r="B38" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4824,39 +4824,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569802.0407188418</v>
+        <v>569897.0842333297</v>
       </c>
       <c r="R38" t="n">
-        <v>6992830.464391444</v>
+        <v>6993078.813114846</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4925,7 +4925,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111277903</v>
+        <v>111277950</v>
       </c>
       <c r="B39" t="n">
         <v>96348</v>
@@ -4966,10 +4966,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>569897.0842333297</v>
+        <v>569874.8142812594</v>
       </c>
       <c r="R39" t="n">
-        <v>6993078.813114846</v>
+        <v>6993100.559414167</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5038,7 +5038,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111278492</v>
+        <v>111277552</v>
       </c>
       <c r="B40" t="n">
         <v>89686</v>
@@ -5079,10 +5079,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>569641.4769454591</v>
+        <v>569770.841244747</v>
       </c>
       <c r="R40" t="n">
-        <v>6992967.635971196</v>
+        <v>6992866.083226931</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5151,7 +5151,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111277538</v>
+        <v>111277633</v>
       </c>
       <c r="B41" t="n">
         <v>89686</v>
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>569784.6764437903</v>
+        <v>569802.0407188418</v>
       </c>
       <c r="R41" t="n">
-        <v>6992856.400962653</v>
+        <v>6992830.464391444</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>

--- a/artfynd/A 6501-2020.xlsx
+++ b/artfynd/A 6501-2020.xlsx
@@ -3795,10 +3795,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111277538</v>
+        <v>111279409</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3807,25 +3807,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569784.6764437903</v>
+        <v>569443.239979364</v>
       </c>
       <c r="R29" t="n">
-        <v>6992856.400962653</v>
+        <v>6992913.042043422</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3908,10 +3908,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111279094</v>
+        <v>111277633</v>
       </c>
       <c r="B30" t="n">
-        <v>89416</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3920,25 +3920,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1205</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>569279.6199819668</v>
+        <v>569802.0407188418</v>
       </c>
       <c r="R30" t="n">
-        <v>6992811.114809629</v>
+        <v>6992830.464391444</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4021,7 +4021,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111277780</v>
+        <v>111277552</v>
       </c>
       <c r="B31" t="n">
         <v>89686</v>
@@ -4058,14 +4058,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>569897.0842333297</v>
+        <v>569770.841244747</v>
       </c>
       <c r="R31" t="n">
-        <v>6993078.813114846</v>
+        <v>6992866.083226931</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111277392</v>
+        <v>111279094</v>
       </c>
       <c r="B32" t="n">
-        <v>89845</v>
+        <v>89416</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4146,25 +4146,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>569750.3053765292</v>
+        <v>569279.6199819668</v>
       </c>
       <c r="R32" t="n">
-        <v>6992912.817455334</v>
+        <v>6992811.114809629</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4247,10 +4247,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111278872</v>
+        <v>111277538</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4263,21 +4263,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4288,10 +4288,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>569296.7869269754</v>
+        <v>569784.6764437903</v>
       </c>
       <c r="R33" t="n">
-        <v>6992794.243538878</v>
+        <v>6992856.400962653</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4360,10 +4360,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111278217</v>
+        <v>111278872</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4376,35 +4376,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Singsån, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>569671.7019483433</v>
+        <v>569296.7869269754</v>
       </c>
       <c r="R34" t="n">
-        <v>6993040.858867787</v>
+        <v>6992794.243538878</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111277448</v>
+        <v>111277392</v>
       </c>
       <c r="B35" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4485,25 +4485,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111279409</v>
+        <v>111277780</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4598,39 +4598,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>569443.239979364</v>
+        <v>569897.0842333297</v>
       </c>
       <c r="R36" t="n">
-        <v>6992913.042043422</v>
+        <v>6993078.813114846</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4699,7 +4699,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111278492</v>
+        <v>111277448</v>
       </c>
       <c r="B37" t="n">
         <v>89686</v>
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569641.4769454591</v>
+        <v>569750.3053765292</v>
       </c>
       <c r="R37" t="n">
-        <v>6992967.635971196</v>
+        <v>6992912.817455334</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4812,10 +4812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111277903</v>
+        <v>111278492</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4824,39 +4824,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569897.0842333297</v>
+        <v>569641.4769454591</v>
       </c>
       <c r="R38" t="n">
-        <v>6993078.813114846</v>
+        <v>6992967.635971196</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4925,10 +4925,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111277950</v>
+        <v>111278217</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4937,39 +4937,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Singsån, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>569874.8142812594</v>
+        <v>569671.7019483433</v>
       </c>
       <c r="R39" t="n">
-        <v>6993100.559414167</v>
+        <v>6993040.858867787</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111277552</v>
+        <v>111277903</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5050,39 +5050,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>569770.841244747</v>
+        <v>569897.0842333297</v>
       </c>
       <c r="R40" t="n">
-        <v>6992866.083226931</v>
+        <v>6993078.813114846</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5151,10 +5151,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111277633</v>
+        <v>111277950</v>
       </c>
       <c r="B41" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5163,39 +5163,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>569802.0407188418</v>
+        <v>569874.8142812594</v>
       </c>
       <c r="R41" t="n">
-        <v>6992830.464391444</v>
+        <v>6993100.559414167</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 6501-2020.xlsx
+++ b/artfynd/A 6501-2020.xlsx
@@ -3795,7 +3795,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111279409</v>
+        <v>111277950</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3832,14 +3832,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>569443.239979364</v>
+        <v>569874.8142812594</v>
       </c>
       <c r="R29" t="n">
-        <v>6992913.042043422</v>
+        <v>6993100.559414167</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>21:39</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3908,7 +3908,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111277633</v>
+        <v>111277538</v>
       </c>
       <c r="B30" t="n">
         <v>89686</v>
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>569802.0407188418</v>
+        <v>569784.6764437903</v>
       </c>
       <c r="R30" t="n">
-        <v>6992830.464391444</v>
+        <v>6992856.400962653</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111277552</v>
+        <v>111277389</v>
       </c>
       <c r="B31" t="n">
         <v>89686</v>
@@ -4062,10 +4062,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>569770.841244747</v>
+        <v>569750.3053765292</v>
       </c>
       <c r="R31" t="n">
-        <v>6992866.083226931</v>
+        <v>6992912.817455334</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,10 +4134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111279094</v>
+        <v>111278217</v>
       </c>
       <c r="B32" t="n">
-        <v>89416</v>
+        <v>89686</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4146,39 +4146,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1205</v>
+        <v>658</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Singsån, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>569279.6199819668</v>
+        <v>569671.7019483433</v>
       </c>
       <c r="R32" t="n">
-        <v>6992811.114809629</v>
+        <v>6993040.858867787</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111277538</v>
+        <v>111277633</v>
       </c>
       <c r="B33" t="n">
         <v>89686</v>
@@ -4288,10 +4288,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>569784.6764437903</v>
+        <v>569802.0407188418</v>
       </c>
       <c r="R33" t="n">
-        <v>6992856.400962653</v>
+        <v>6992830.464391444</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111278872</v>
+        <v>111277392</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4372,25 +4372,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4401,10 +4401,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>569296.7869269754</v>
+        <v>569750.3053765292</v>
       </c>
       <c r="R34" t="n">
-        <v>6992794.243538878</v>
+        <v>6992912.817455334</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4473,10 +4473,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111277392</v>
+        <v>111278872</v>
       </c>
       <c r="B35" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4485,25 +4485,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>569750.3053765292</v>
+        <v>569296.7869269754</v>
       </c>
       <c r="R35" t="n">
-        <v>6992912.817455334</v>
+        <v>6992794.243538878</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4699,10 +4699,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111277448</v>
+        <v>111277903</v>
       </c>
       <c r="B37" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4711,39 +4711,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Ragunda, Jmt</t>
+          <t>Präststranden, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>569750.3053765292</v>
+        <v>569897.0842333297</v>
       </c>
       <c r="R37" t="n">
-        <v>6992912.817455334</v>
+        <v>6993078.813114846</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:24</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4812,10 +4812,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111278492</v>
+        <v>111279094</v>
       </c>
       <c r="B38" t="n">
-        <v>89686</v>
+        <v>89416</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4824,25 +4824,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>1205</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4853,10 +4853,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>569641.4769454591</v>
+        <v>569279.6199819668</v>
       </c>
       <c r="R38" t="n">
-        <v>6992967.635971196</v>
+        <v>6992811.114809629</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111278217</v>
+        <v>111278492</v>
       </c>
       <c r="B39" t="n">
         <v>89686</v>
@@ -4962,14 +4962,14 @@
       <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Singsån, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>569671.7019483433</v>
+        <v>569641.4769454591</v>
       </c>
       <c r="R39" t="n">
-        <v>6993040.858867787</v>
+        <v>6992967.635971196</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111277903</v>
+        <v>111277552</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5050,39 +5050,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>569897.0842333297</v>
+        <v>569770.841244747</v>
       </c>
       <c r="R40" t="n">
-        <v>6993078.813114846</v>
+        <v>6992866.083226931</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>20:24</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5151,7 +5151,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111277950</v>
+        <v>111279409</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5188,14 +5188,14 @@
       <c r="K41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Präststranden, Jmt</t>
+          <t>Ragunda, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>569874.8142812594</v>
+        <v>569443.239979364</v>
       </c>
       <c r="R41" t="n">
-        <v>6993100.559414167</v>
+        <v>6992913.042043422</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>20:26</t>
+          <t>21:39</t>
         </is>
       </c>
       <c r="AD41" t="b">
